--- a/com.ebay/src/test/resources/ebay_test_data.xlsx
+++ b/com.ebay/src/test/resources/ebay_test_data.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.ebay/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928E93D-DCEC-F342-8E61-2A5EE9F39339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D829C5A2-F447-6645-AE41-B81BE042BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{14A7D2C2-C248-5749-8338-E2C223D050D1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="9" xr2:uid="{14A7D2C2-C248-5749-8338-E2C223D050D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Searching" sheetId="1" r:id="rId1"/>
+    <sheet name="ShopMotorcycles" sheetId="2" r:id="rId2"/>
+    <sheet name="ShopSmartphones" sheetId="3" r:id="rId3"/>
+    <sheet name="ShopComics" sheetId="4" r:id="rId4"/>
+    <sheet name="ShopFurniture" sheetId="5" r:id="rId5"/>
+    <sheet name="ShopMensShirts" sheetId="6" r:id="rId6"/>
+    <sheet name="ShopActionFigures" sheetId="7" r:id="rId7"/>
+    <sheet name="ShopBikes" sheetId="8" r:id="rId8"/>
+    <sheet name="ShopOscilloscopes" sheetId="9" r:id="rId9"/>
+    <sheet name="ShopLuxuryWatches" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,12 +45,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Sony a7 iii</t>
   </si>
   <si>
     <t>625</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Hayabusa</t>
+  </si>
+  <si>
+    <t>Suzuki Hayabusa</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Silver Age (1956-69) Era Comics</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Sofas</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Nike Men's T-Shirts</t>
+  </si>
+  <si>
+    <t>Mattel DC Universe Action Figure</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cannondale Bikes</t>
+  </si>
+  <si>
+    <t>Mixed Signal Oscilloscope (MSO) Oscilloscopes &amp; Vectorscopes</t>
+  </si>
+  <si>
+    <t>Rolex Cosmograph Daytona Watches</t>
   </si>
 </sst>
 </file>
@@ -82,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -402,24 +466,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6780FF5-A029-F243-8827-A1C5542C791C}">
   <dimension ref="A2:C2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C32713-230D-C441-8C46-102B2A01C22E}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="39.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CB0597-E14F-2F4A-8705-A5EFD241CFB6}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E6E0B-8489-864A-93BD-B20BA707040B}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5450533-961B-864C-9078-1C53C3DC3ACB}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="38.1640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D527786-E039-B542-B57A-7CB240658133}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2AFE7D-9C5B-DD42-BAD9-330543024703}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D5915A-89BE-EE4A-BE7B-504FC3502FEB}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="39" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953EAA1A-30F1-2945-BFD7-D4AF36F4E3DB}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F01E87D-832D-0E4B-BC6D-47A29E4D5820}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
